--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Input</t>
   </si>
@@ -47,19 +47,24 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Create ICS File, Upload to Google Docs</t>
+  </si>
+  <si>
+    <t>Create ICS File, Reupload to Site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -79,14 +84,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -309,32 +311,32 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="b">
+      <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -342,10 +344,10 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -353,21 +355,43 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="b">
+      <c r="C5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="b">
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
